--- a/biology/Histoire de la zoologie et de la botanique/James_McConnell/James_McConnell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_McConnell/James_McConnell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Frederick Parry McConnell est un médecin britannique originaire d’Inde, né le 13 janvier 1848 à Âgrâ et mort le 24 août 1895 à Calcutta.
 Il est le fils d’un écossais, James F. McConnell. Il étudie la médecine à l’université d'Aberdeen et au St. George’s Hospital. Il obtient son bachelor of medicine puis son master of surgery avec honneur en 1869. Il devient membre du Royal College of Surgeons avant d’être élu en 1888 membre du Royal College of Physicians.
@@ -514,7 +526,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">David I. Grove (2000). A History of Human Helminthology. Red-c2.com.  (ISBN 1-876809-08-6).
  Portail de l’histoire de la zoologie et de la botanique   Portail de la parasitologie   Portail du Royaume-Uni   Portail de l’Inde                  </t>
